--- a/data/outputs/OR_altmetric/2 .xlsx
+++ b/data/outputs/OR_altmetric/2 .xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE79"/>
+  <dimension ref="A1:CF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1043,6 +1048,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1292,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1531,6 +1542,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1774,6 +1788,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2015,6 +2032,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2256,6 +2276,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2513,6 +2536,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2758,6 +2784,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3009,6 +3038,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,6 +3286,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3503,6 +3538,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3760,6 +3798,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4009,6 +4050,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4266,6 +4310,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4515,6 +4562,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4764,6 +4814,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5013,6 +5066,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5260,6 +5316,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5507,6 +5566,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5748,6 +5810,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5997,6 +6062,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6254,6 +6322,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6501,6 +6572,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6744,6 +6818,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6985,6 +7062,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7226,6 +7306,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7469,6 +7552,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7712,6 +7798,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7963,6 +8052,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8202,6 +8294,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8459,6 +8554,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8710,6 +8808,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8951,6 +9052,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9178,6 +9282,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9425,6 +9532,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9674,6 +9784,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9923,6 +10036,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10178,6 +10294,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10431,6 +10550,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10686,6 +10808,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10943,6 +11068,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11201,6 +11329,9 @@
       </c>
       <c r="CE43" t="n">
         <v>0</v>
+      </c>
+      <c r="CF43" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="44">
@@ -11447,6 +11578,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11702,6 +11836,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11937,6 +12074,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12170,6 +12310,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12411,6 +12554,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12660,6 +12806,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12909,6 +13058,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13162,6 +13314,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13423,6 +13578,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13686,6 +13844,9 @@
         <v>0</v>
       </c>
       <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13925,6 +14086,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14158,6 +14322,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14399,6 +14566,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14654,6 +14824,9 @@
         <v>0</v>
       </c>
       <c r="CE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14901,6 +15074,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15146,6 +15322,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15397,6 +15576,9 @@
         <v>0</v>
       </c>
       <c r="CE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15640,6 +15822,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15887,6 +16072,9 @@
       <c r="CE62" t="n">
         <v>1</v>
       </c>
+      <c r="CF62" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16124,6 +16312,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16359,6 +16550,9 @@
         <v>0</v>
       </c>
       <c r="CE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16598,6 +16792,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16839,6 +17036,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17078,6 +17278,9 @@
         <v>0</v>
       </c>
       <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17313,6 +17516,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17546,6 +17752,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17787,6 +17996,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18022,6 +18234,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18257,6 +18472,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18502,6 +18720,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18737,6 +18958,9 @@
         <v>0</v>
       </c>
       <c r="CE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18972,6 +19196,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19226,6 +19453,9 @@
       </c>
       <c r="CE76" t="n">
         <v>2</v>
+      </c>
+      <c r="CF76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -19460,6 +19690,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19697,6 +19930,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19958,6 +20194,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
